--- a/pred_ohlcv/54_21/2019-10-26 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BZNT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-92216.81479793089</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-92205.81479793089</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-104525.6242979309</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3506.763697930888</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-106483.6828979309</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-106483.6828979309</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-519692.8422979309</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-527214.8760979308</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-371474.5723979308</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-371474.5723979308</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-345252.2691979308</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-323114.1661979308</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-644819.8932979308</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-624931.1286979308</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-644770.1713979308</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-413419.7924740227</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-445151.4783740227</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-388813.6608740227</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-388813.6608740227</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-274375.3850740227</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>813871.2942678961</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1134791.338424005</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1134801.338424005</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1092301.338424005</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1092319.338424005</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>9433.597824004944</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-144887.5559759951</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BZNT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-92216.81479793089</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-92205.81479793089</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-104525.6242979309</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3506.763697930888</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-106483.6828979309</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-106483.6828979309</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-519692.8422979309</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-527214.8760979308</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-371474.5723979308</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-371474.5723979308</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-345252.2691979308</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-323114.1661979308</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-644819.8932979308</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-624931.1286979308</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-644770.1713979308</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-413419.7924740227</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-445151.4783740227</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-388813.6608740227</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-388813.6608740227</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-274375.3850740227</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-261125.7055740227</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-261125.7055740227</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>536561.1777242132</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1041270.0743</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1015834.716867896</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>813871.2942678961</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>815872.2942678961</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>772476.2942678961</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>772466.2942678961</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1134801.338424005</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1092301.338424005</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>9433.597824004944</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
